--- a/Relatórios/testes.xlsx
+++ b/Relatórios/testes.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Happy_Guest\HG-Notes\Relatórios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1796FBF4-E7F2-4ED6-A21C-5BEC93675E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB2CB34-BA12-40F2-8E50-58881B4D7172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BF7BC44D-E93B-4B2B-A80B-9573D94144F8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BF7BC44D-E93B-4B2B-A80B-9573D94144F8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Mobile" sheetId="1" r:id="rId1"/>
+    <sheet name="Web" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Nº do Teste</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="58">
   <si>
     <t>Objetivo do Teste:</t>
   </si>
@@ -47,20 +45,179 @@
     <t>Tempo esperado:</t>
   </si>
   <si>
-    <t>Nº de erros esperado:</t>
-  </si>
-  <si>
     <t>Descrição do Teste</t>
   </si>
   <si>
     <t>Estatísticas</t>
+  </si>
+  <si>
+    <t>Nº de erros possiveis:</t>
+  </si>
+  <si>
+    <t>Utilizador 1</t>
+  </si>
+  <si>
+    <t>Testar a facilidade de criar conta</t>
+  </si>
+  <si>
+    <t>segundos</t>
+  </si>
+  <si>
+    <t>Testar a facilidade de fazer login</t>
+  </si>
+  <si>
+    <t>Teste 1</t>
+  </si>
+  <si>
+    <t>Teste 2</t>
+  </si>
+  <si>
+    <t>Teste 3</t>
+  </si>
+  <si>
+    <t>Teste 4</t>
+  </si>
+  <si>
+    <t>Teste 5</t>
+  </si>
+  <si>
+    <t>Teste 6</t>
+  </si>
+  <si>
+    <t>Testar as funcionalidades relativas às reclamações</t>
+  </si>
+  <si>
+    <t>Testar as funcionalidades relativamente ao perfil de utilizador</t>
+  </si>
+  <si>
+    <t>Testar as funcionalidades de sessão</t>
+  </si>
+  <si>
+    <t>Testar as funcionalidades relativas aos códigos da reserva</t>
+  </si>
+  <si>
+    <t>Teste 7</t>
+  </si>
+  <si>
+    <t>Testar as funcionalidades relativas às avaliações</t>
+  </si>
+  <si>
+    <t>Teste 8</t>
+  </si>
+  <si>
+    <t>Testar as funcionalidades relativas aos pedidos</t>
+  </si>
+  <si>
+    <t>Teste 9</t>
+  </si>
+  <si>
+    <t>Testar as funcionalidades relativas ás reservas</t>
+  </si>
+  <si>
+    <t>Teste 10</t>
+  </si>
+  <si>
+    <t>Testar a facilidade de fazer check-out</t>
+  </si>
+  <si>
+    <t>No teste 1 o objetivo é registar um novo utilizador. O utilizador demorou aproximadamente o tempo esperado, 50 segundos, e não resgistou nenhum erro na realização do teste</t>
+  </si>
+  <si>
+    <t>No teste 2 o objetivo é fazer login utilizando as credenciais registadas. O utilizador demorou aproximadamente o tempo esperado, 19 segundos, e não resgistou nenhum erro na realização do teste</t>
+  </si>
+  <si>
+    <t>No teste 3 o objetivo é fazer login com lembrar sessão e depois terminar sessão. O utilizador demorou o tempo esperado, 25 segundos, e não resgistou nenhum erro na realização do teste</t>
+  </si>
+  <si>
+    <t>No teste 4 o objetivo é ver o perfil de utilizador e atualizar as informações da data de nascimento, foto de perfil e depois alterar a sua palavra-passe. O utilizador demorou mais que o tempo esperado, demorou 110 segundos, e resgistou 2 erros na realização do teste</t>
+  </si>
+  <si>
+    <t>No teste 5 o objetivo é inserir um código de reserva, visualizar a lista de códigos de reserva e desassociar o código. O utilizador demorou aproximadamente o tempo esperado, 25 segundos, e não resgistou nenhum erro na realização do teste</t>
+  </si>
+  <si>
+    <t>No teste 6 o objetivo é registar uma reclamação e visualizar a mesma. O utilizador demorou aproximadamente o tempo esperado, 40 segundos, e não resgistou nenhum erro na realização do teste</t>
+  </si>
+  <si>
+    <t>No teste 7 o objetivo é registar uma avaliação e visualizar a mesma. O utilizador demorou aproximadamente o tempo esperado, 32 segundos, e não resgistou nenhum erro na realização do teste</t>
+  </si>
+  <si>
+    <t>No teste 8 o objetivo é registar um pedido num serviço de quartos e visualizar o estado do mesmo. O utilizador demorou menos que o tempo esperado, 50 segundos, e não resgistou nenhum erro na realização do teste</t>
+  </si>
+  <si>
+    <t>1 +</t>
+  </si>
+  <si>
+    <t>No teste 9 o objetivo é registar uma reserva de mesa no restaurante e visualizar o estado da mesma. O utilizador  aproximandamente o tempo esperado, 48 segundos, e não resgistou nenhum erro na realização do teste</t>
+  </si>
+  <si>
+    <t>No teste 1 o objetivo é fazer login utilizando as credenciais dadas. O utilizador demorou aproximadamente o tempo esperado, 8 segundos, e não resgistou nenhum erro na realização do teste</t>
+  </si>
+  <si>
+    <t>No teste 3 o objetivo é fazer login com lembrar sessão e depois terminar sessão. O utilizador demorou o tempo esperado, 15 segundos, e não resgistou nenhum erro na realização do teste</t>
+  </si>
+  <si>
+    <t>Testar as funcionalidades relativamente aos utilizadores</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>No teste 4 o objetivo é criar um utilizador, vizualiza-lo, bloquea-lo e por fim elimina-lo. O utilizador demorou aproximadamente o tempo esperado, demorou 115 segundos, e resgistou 2 erros na realização do teste</t>
+  </si>
+  <si>
+    <t>No teste 3 o objetivo é ver o perfil de utilizador e atualizar as informações da morada, foto de perfil e depois alterar a sua palavra-passe. O utilizador demorou mais que o tempo esperado, demorou 67 segundos, e resgistou 1 erro na realização do teste</t>
+  </si>
+  <si>
+    <t>No teste 5 o objetivo é criar um código de reserva, editar o código e eliminar o código. O utilizador demorou aproximadamente o tempo esperado, 42 segundos, e resgistou 1 erro na realização do teste</t>
+  </si>
+  <si>
+    <t>No teste 6 o objetivo é registar uma reclamação , visualizar, responder e eliminar a mesma. O utilizador demorou aproximadamente o tempo esperado, 58 segundos, e resgistou 3 erros na realização do teste</t>
+  </si>
+  <si>
+    <t>No teste 7 o objetivo é registar uma avaliação , visualizar, partilhar com alguém e eliminar a mesma. O utilizador demorou aproximadamente o tempo esperado, 48 segundos, e resgistou 1 erro na realização do teste</t>
+  </si>
+  <si>
+    <t>No teste 10 o objetivo é fazer check-out. O utilizador demorou o tempo esperado, 2 segundos, e não resgistou nenhum erro na realização do teste</t>
+  </si>
+  <si>
+    <t>No teste 10 o objetivo é registar um check-out, validar o mesmo e elimina-lo. O utilizador demorou o tempo esperado, 10 segundos, e não resgistou nenhum erro na realização do teste</t>
+  </si>
+  <si>
+    <t>No teste 9 o objetivo é registar uma reserva de mesa, visualizar o estado da mesma, alterar o mesmo e eliminar a reserva. O utilizador demorou menos que o tempo esperado, 40 segundos, e não registou nenhum erro na realização do teste</t>
+  </si>
+  <si>
+    <t>No teste 8 o objetivo é registar um pedido num serviço de quartos, visualizar o estado do mesmo e alterar o mesmo  e eliminar o pedido. O utilizador demorou menos que o tempo esperado, 40 segundos, e resgistou 1 erro na realização do teste</t>
+  </si>
+  <si>
+    <t>Teste 11</t>
+  </si>
+  <si>
+    <t>Testar as funcionalidades relativas aos objetos e alimentos</t>
+  </si>
+  <si>
+    <t>No teste 11 o objetivo é registar um alimento ou um objeto, adiciona-lo e remove-lo do menu, edita-lo e elimina-lo. O utilizador demorou mais que o tempo esperado, 50 segundos, e resgistou 1 erro na realização do teste</t>
+  </si>
+  <si>
+    <t>Teste 12</t>
+  </si>
+  <si>
+    <t>Testar as funcionalidades relativas aos serviços</t>
+  </si>
+  <si>
+    <t>Testar as funcionalidades relativas às informações adicionais</t>
+  </si>
+  <si>
+    <t>No teste 12 o objetivo é editar um serviço alterarndo uma das informações. O utilizador demorou o tempo esperado, 20 segundos, e não resgistou nenhum erro na realização do teste</t>
+  </si>
+  <si>
+    <t>No teste 12 o objetivo é editar as informações do hotel e depois da região. O utilizador demorou o tempo esperado, 30 segundos, e não resgistou nenhum erro na realização do teste</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +243,27 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -200,20 +378,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -223,6 +420,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -231,6 +431,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -552,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28721F38-21BE-4D20-A40B-64D5396B1B7F}">
-  <dimension ref="C1:Q21"/>
+  <dimension ref="C1:AA202"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView showGridLines="0" topLeftCell="A180" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E196" sqref="E196:I201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -563,22 +775,28 @@
     <col min="2" max="2" width="9.88671875" customWidth="1"/>
     <col min="4" max="4" width="6.88671875" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="7" max="7" width="6.109375" customWidth="1"/>
+    <col min="6" max="6" width="3.5546875" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
     <col min="8" max="8" width="18.5546875" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.44140625" customWidth="1"/>
+    <col min="20" max="20" width="17.77734375" customWidth="1"/>
+    <col min="21" max="21" width="4.33203125" customWidth="1"/>
+    <col min="22" max="22" width="5.109375" customWidth="1"/>
+    <col min="23" max="23" width="19.88671875" customWidth="1"/>
+    <col min="24" max="24" width="5.44140625" customWidth="1"/>
+    <col min="25" max="25" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+    <row r="1" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -586,16 +804,7 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+    <row r="2" spans="3:27" x14ac:dyDescent="0.3">
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -603,18 +812,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="3:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C3" s="4"/>
-      <c r="D3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="5"/>
+    <row r="3" spans="3:27" x14ac:dyDescent="0.3">
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -622,16 +820,12 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C4" s="4"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="5"/>
+    <row r="4" spans="3:27" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -639,269 +833,4544 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="3:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="4"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="5"/>
+    <row r="5" spans="3:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C6" s="4"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="5"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+    </row>
+    <row r="6" spans="3:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C6" s="2"/>
+      <c r="D6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="4"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="3:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C7" s="4"/>
-      <c r="D7" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="5"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="1"/>
+    </row>
+    <row r="7" spans="3:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="2"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="4"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C8" s="4"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="5"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="1"/>
+    </row>
+    <row r="8" spans="3:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="2"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="4"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="3:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="4"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="1"/>
+    </row>
+    <row r="9" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C9" s="2"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="5"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="4"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C10" s="4"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="5"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="1"/>
+    </row>
+    <row r="10" spans="3:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C10" s="2"/>
+      <c r="D10" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="4"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="3:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C11" s="4"/>
-      <c r="D11" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="5"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="1"/>
+    </row>
+    <row r="11" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C11" s="2"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="4"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C12" s="4"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="1"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="1"/>
+    </row>
+    <row r="12" spans="3:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="2"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10">
+        <v>60</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="10">
+        <v>10</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="4"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C13" s="4"/>
-      <c r="D13" s="6"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="1"/>
+    </row>
+    <row r="13" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C13" s="2"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C14" s="4"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="5"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C15" s="4"/>
-      <c r="D15" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="1"/>
+    </row>
+    <row r="14" spans="3:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C14" s="2"/>
+      <c r="D14" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="1"/>
+    </row>
+    <row r="15" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C15" s="2"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="7"/>
+      <c r="J15" s="6"/>
       <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C16" s="4"/>
-      <c r="D16" s="6"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="1"/>
+    </row>
+    <row r="16" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C16" s="2"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="1"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C17" s="2"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="1"/>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C18" s="2"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="2"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="1"/>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C19" s="2"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="2"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="1"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C20" s="2"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="2"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="1"/>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C21" s="2"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="2"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="1"/>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C22" s="2"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="2"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="1"/>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="1"/>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+    </row>
+    <row r="26" spans="3:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D26" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="20"/>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="D27" s="5"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="3:27" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="5"/>
+      <c r="E28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="26"/>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="D29" s="5"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="3:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D30" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="24"/>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="D31" s="5"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="D32" s="5"/>
+      <c r="E32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="10">
+        <v>20</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="10">
+        <v>7</v>
+      </c>
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D33" s="5"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D34" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="24"/>
+    </row>
+    <row r="35" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D35" s="5"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D36" s="5"/>
+      <c r="E36" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D37" s="5"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="6"/>
+    </row>
+    <row r="38" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D38" s="5"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D39" s="5"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="6"/>
+    </row>
+    <row r="40" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D40" s="5"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="6"/>
+    </row>
+    <row r="41" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D41" s="5"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D42" s="7"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="9"/>
+    </row>
+    <row r="46" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D46" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="20"/>
+    </row>
+    <row r="47" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D47" s="5"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="6"/>
+    </row>
+    <row r="48" spans="4:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D48" s="5"/>
+      <c r="E48" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G48" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="26"/>
+    </row>
+    <row r="49" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D49" s="5"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="6"/>
+    </row>
+    <row r="50" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D50" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="24"/>
+    </row>
+    <row r="51" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D51" s="5"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="6"/>
+    </row>
+    <row r="52" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D52" s="5"/>
+      <c r="E52" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F52" s="10">
+        <v>25</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="10">
+        <v>1</v>
+      </c>
+      <c r="J52" s="6"/>
+    </row>
+    <row r="53" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D53" s="5"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="6"/>
+    </row>
+    <row r="54" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D54" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="24"/>
+    </row>
+    <row r="55" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D55" s="5"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="6"/>
+    </row>
+    <row r="56" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D56" s="5"/>
+      <c r="E56" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="6"/>
+    </row>
+    <row r="57" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D57" s="5"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="6"/>
+    </row>
+    <row r="58" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D58" s="5"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="6"/>
+    </row>
+    <row r="59" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D59" s="5"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="6"/>
+    </row>
+    <row r="60" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D60" s="5"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="6"/>
+    </row>
+    <row r="61" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D61" s="5"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="6"/>
+    </row>
+    <row r="62" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D62" s="7"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="9"/>
+    </row>
+    <row r="66" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D66" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="20"/>
+    </row>
+    <row r="67" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D67" s="5"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="6"/>
+    </row>
+    <row r="68" spans="4:10" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D68" s="5"/>
+      <c r="E68" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G68" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="13"/>
+    </row>
+    <row r="69" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D69" s="5"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="6"/>
+    </row>
+    <row r="70" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D70" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
+      <c r="I70" s="23"/>
+      <c r="J70" s="24"/>
+    </row>
+    <row r="71" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D71" s="5"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="6"/>
+    </row>
+    <row r="72" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D72" s="5"/>
+      <c r="E72" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F72" s="10">
+        <v>90</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72" s="10">
+        <v>11</v>
+      </c>
+      <c r="J72" s="6"/>
+    </row>
+    <row r="73" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D73" s="5"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="6"/>
+    </row>
+    <row r="74" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D74" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="23"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="24"/>
+    </row>
+    <row r="75" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D75" s="5"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="6"/>
+    </row>
+    <row r="76" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D76" s="5"/>
+      <c r="E76" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="6"/>
+    </row>
+    <row r="77" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D77" s="5"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="6"/>
+    </row>
+    <row r="78" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D78" s="5"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="6"/>
+    </row>
+    <row r="79" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D79" s="5"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="6"/>
+    </row>
+    <row r="80" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D80" s="5"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="6"/>
+    </row>
+    <row r="81" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D81" s="5"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="6"/>
+    </row>
+    <row r="82" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D82" s="7"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="9"/>
+    </row>
+    <row r="86" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D86" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="20"/>
+    </row>
+    <row r="87" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D87" s="5"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="6"/>
+    </row>
+    <row r="88" spans="4:10" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="D88" s="5"/>
+      <c r="E88" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G88" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H88" s="21"/>
+      <c r="I88" s="21"/>
+      <c r="J88" s="13"/>
+    </row>
+    <row r="89" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D89" s="5"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="6"/>
+    </row>
+    <row r="90" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D90" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="23"/>
+      <c r="I90" s="23"/>
+      <c r="J90" s="24"/>
+    </row>
+    <row r="91" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D91" s="5"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="6"/>
+    </row>
+    <row r="92" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D92" s="5"/>
+      <c r="E92" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F92" s="10">
+        <v>20</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I92" s="10">
+        <v>4</v>
+      </c>
+      <c r="J92" s="6"/>
+    </row>
+    <row r="93" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D93" s="5"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="6"/>
+    </row>
+    <row r="94" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D94" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E94" s="23"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="23"/>
+      <c r="I94" s="23"/>
+      <c r="J94" s="24"/>
+    </row>
+    <row r="95" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D95" s="5"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="6"/>
+    </row>
+    <row r="96" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D96" s="5"/>
+      <c r="E96" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="6"/>
+    </row>
+    <row r="97" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D97" s="5"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="17"/>
+      <c r="J97" s="6"/>
+    </row>
+    <row r="98" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D98" s="5"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="6"/>
+    </row>
+    <row r="99" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D99" s="5"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="17"/>
+      <c r="J99" s="6"/>
+    </row>
+    <row r="100" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D100" s="5"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="17"/>
+      <c r="J100" s="6"/>
+    </row>
+    <row r="101" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D101" s="5"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="17"/>
+      <c r="I101" s="17"/>
+      <c r="J101" s="6"/>
+    </row>
+    <row r="102" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D102" s="7"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
+      <c r="J102" s="9"/>
+    </row>
+    <row r="106" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D106" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106" s="19"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="19"/>
+      <c r="I106" s="19"/>
+      <c r="J106" s="20"/>
+    </row>
+    <row r="107" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D107" s="5"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="6"/>
+    </row>
+    <row r="108" spans="4:10" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="D108" s="5"/>
+      <c r="E108" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G108" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H108" s="21"/>
+      <c r="I108" s="21"/>
+      <c r="J108" s="13"/>
+    </row>
+    <row r="109" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D109" s="5"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="6"/>
+    </row>
+    <row r="110" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D110" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E110" s="23"/>
+      <c r="F110" s="23"/>
+      <c r="G110" s="23"/>
+      <c r="H110" s="23"/>
+      <c r="I110" s="23"/>
+      <c r="J110" s="24"/>
+    </row>
+    <row r="111" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D111" s="5"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="6"/>
+    </row>
+    <row r="112" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D112" s="5"/>
+      <c r="E112" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F112" s="10">
+        <v>45</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I112" s="10">
+        <v>12</v>
+      </c>
+      <c r="J112" s="6"/>
+    </row>
+    <row r="113" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D113" s="5"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="6"/>
+    </row>
+    <row r="114" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D114" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E114" s="23"/>
+      <c r="F114" s="23"/>
+      <c r="G114" s="23"/>
+      <c r="H114" s="23"/>
+      <c r="I114" s="23"/>
+      <c r="J114" s="24"/>
+    </row>
+    <row r="115" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D115" s="5"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="6"/>
+    </row>
+    <row r="116" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D116" s="5"/>
+      <c r="E116" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F116" s="17"/>
+      <c r="G116" s="17"/>
+      <c r="H116" s="17"/>
+      <c r="I116" s="17"/>
+      <c r="J116" s="6"/>
+    </row>
+    <row r="117" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D117" s="5"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="17"/>
+      <c r="H117" s="17"/>
+      <c r="I117" s="17"/>
+      <c r="J117" s="6"/>
+    </row>
+    <row r="118" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D118" s="5"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="17"/>
+      <c r="G118" s="17"/>
+      <c r="H118" s="17"/>
+      <c r="I118" s="17"/>
+      <c r="J118" s="6"/>
+    </row>
+    <row r="119" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D119" s="5"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="17"/>
+      <c r="H119" s="17"/>
+      <c r="I119" s="17"/>
+      <c r="J119" s="6"/>
+    </row>
+    <row r="120" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D120" s="5"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="17"/>
+      <c r="G120" s="17"/>
+      <c r="H120" s="17"/>
+      <c r="I120" s="17"/>
+      <c r="J120" s="6"/>
+    </row>
+    <row r="121" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D121" s="5"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="17"/>
+      <c r="G121" s="17"/>
+      <c r="H121" s="17"/>
+      <c r="I121" s="17"/>
+      <c r="J121" s="6"/>
+    </row>
+    <row r="122" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D122" s="7"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="8"/>
+      <c r="J122" s="9"/>
+    </row>
+    <row r="126" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D126" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E126" s="19"/>
+      <c r="F126" s="19"/>
+      <c r="G126" s="19"/>
+      <c r="H126" s="19"/>
+      <c r="I126" s="19"/>
+      <c r="J126" s="20"/>
+    </row>
+    <row r="127" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D127" s="5"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="6"/>
+    </row>
+    <row r="128" spans="4:10" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="D128" s="5"/>
+      <c r="E128" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G128" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H128" s="21"/>
+      <c r="I128" s="21"/>
+      <c r="J128" s="13"/>
+    </row>
+    <row r="129" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D129" s="5"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="6"/>
+    </row>
+    <row r="130" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D130" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E130" s="23"/>
+      <c r="F130" s="23"/>
+      <c r="G130" s="23"/>
+      <c r="H130" s="23"/>
+      <c r="I130" s="23"/>
+      <c r="J130" s="24"/>
+    </row>
+    <row r="131" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D131" s="5"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="6"/>
+    </row>
+    <row r="132" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D132" s="5"/>
+      <c r="E132" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F132" s="10">
+        <v>30</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I132" s="10">
+        <v>4</v>
+      </c>
+      <c r="J132" s="6"/>
+    </row>
+    <row r="133" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D133" s="5"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+      <c r="J133" s="6"/>
+    </row>
+    <row r="134" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D134" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E134" s="23"/>
+      <c r="F134" s="23"/>
+      <c r="G134" s="23"/>
+      <c r="H134" s="23"/>
+      <c r="I134" s="23"/>
+      <c r="J134" s="24"/>
+    </row>
+    <row r="135" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D135" s="5"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="6"/>
+    </row>
+    <row r="136" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D136" s="5"/>
+      <c r="E136" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F136" s="17"/>
+      <c r="G136" s="17"/>
+      <c r="H136" s="17"/>
+      <c r="I136" s="17"/>
+      <c r="J136" s="6"/>
+    </row>
+    <row r="137" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D137" s="5"/>
+      <c r="E137" s="17"/>
+      <c r="F137" s="17"/>
+      <c r="G137" s="17"/>
+      <c r="H137" s="17"/>
+      <c r="I137" s="17"/>
+      <c r="J137" s="6"/>
+    </row>
+    <row r="138" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D138" s="5"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="17"/>
+      <c r="G138" s="17"/>
+      <c r="H138" s="17"/>
+      <c r="I138" s="17"/>
+      <c r="J138" s="6"/>
+    </row>
+    <row r="139" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D139" s="5"/>
+      <c r="E139" s="17"/>
+      <c r="F139" s="17"/>
+      <c r="G139" s="17"/>
+      <c r="H139" s="17"/>
+      <c r="I139" s="17"/>
+      <c r="J139" s="6"/>
+    </row>
+    <row r="140" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D140" s="5"/>
+      <c r="E140" s="17"/>
+      <c r="F140" s="17"/>
+      <c r="G140" s="17"/>
+      <c r="H140" s="17"/>
+      <c r="I140" s="17"/>
+      <c r="J140" s="6"/>
+    </row>
+    <row r="141" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D141" s="5"/>
+      <c r="E141" s="17"/>
+      <c r="F141" s="17"/>
+      <c r="G141" s="17"/>
+      <c r="H141" s="17"/>
+      <c r="I141" s="17"/>
+      <c r="J141" s="6"/>
+    </row>
+    <row r="142" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D142" s="7"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c r="H142" s="8"/>
+      <c r="I142" s="8"/>
+      <c r="J142" s="9"/>
+    </row>
+    <row r="146" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D146" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E146" s="19"/>
+      <c r="F146" s="19"/>
+      <c r="G146" s="19"/>
+      <c r="H146" s="19"/>
+      <c r="I146" s="19"/>
+      <c r="J146" s="20"/>
+    </row>
+    <row r="147" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D147" s="5"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
+      <c r="J147" s="6"/>
+    </row>
+    <row r="148" spans="4:10" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="D148" s="5"/>
+      <c r="E148" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G148" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H148" s="21"/>
+      <c r="I148" s="21"/>
+      <c r="J148" s="13"/>
+    </row>
+    <row r="149" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D149" s="5"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
+      <c r="H149" s="2"/>
+      <c r="I149" s="2"/>
+      <c r="J149" s="6"/>
+    </row>
+    <row r="150" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D150" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E150" s="23"/>
+      <c r="F150" s="23"/>
+      <c r="G150" s="23"/>
+      <c r="H150" s="23"/>
+      <c r="I150" s="23"/>
+      <c r="J150" s="24"/>
+    </row>
+    <row r="151" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D151" s="5"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2"/>
+      <c r="J151" s="6"/>
+    </row>
+    <row r="152" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D152" s="5"/>
+      <c r="E152" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F152" s="10">
+        <v>80</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I152" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J152" s="6"/>
+    </row>
+    <row r="153" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D153" s="5"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
+      <c r="I153" s="2"/>
+      <c r="J153" s="6"/>
+    </row>
+    <row r="154" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D154" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E154" s="23"/>
+      <c r="F154" s="23"/>
+      <c r="G154" s="23"/>
+      <c r="H154" s="23"/>
+      <c r="I154" s="23"/>
+      <c r="J154" s="24"/>
+    </row>
+    <row r="155" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D155" s="5"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="6"/>
+    </row>
+    <row r="156" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D156" s="5"/>
+      <c r="E156" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F156" s="17"/>
+      <c r="G156" s="17"/>
+      <c r="H156" s="17"/>
+      <c r="I156" s="17"/>
+      <c r="J156" s="6"/>
+    </row>
+    <row r="157" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D157" s="5"/>
+      <c r="E157" s="17"/>
+      <c r="F157" s="17"/>
+      <c r="G157" s="17"/>
+      <c r="H157" s="17"/>
+      <c r="I157" s="17"/>
+      <c r="J157" s="6"/>
+    </row>
+    <row r="158" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D158" s="5"/>
+      <c r="E158" s="17"/>
+      <c r="F158" s="17"/>
+      <c r="G158" s="17"/>
+      <c r="H158" s="17"/>
+      <c r="I158" s="17"/>
+      <c r="J158" s="6"/>
+    </row>
+    <row r="159" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D159" s="5"/>
+      <c r="E159" s="17"/>
+      <c r="F159" s="17"/>
+      <c r="G159" s="17"/>
+      <c r="H159" s="17"/>
+      <c r="I159" s="17"/>
+      <c r="J159" s="6"/>
+    </row>
+    <row r="160" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D160" s="5"/>
+      <c r="E160" s="17"/>
+      <c r="F160" s="17"/>
+      <c r="G160" s="17"/>
+      <c r="H160" s="17"/>
+      <c r="I160" s="17"/>
+      <c r="J160" s="6"/>
+    </row>
+    <row r="161" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D161" s="5"/>
+      <c r="E161" s="17"/>
+      <c r="F161" s="17"/>
+      <c r="G161" s="17"/>
+      <c r="H161" s="17"/>
+      <c r="I161" s="17"/>
+      <c r="J161" s="6"/>
+    </row>
+    <row r="162" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D162" s="7"/>
+      <c r="E162" s="8"/>
+      <c r="F162" s="8"/>
+      <c r="G162" s="8"/>
+      <c r="H162" s="8"/>
+      <c r="I162" s="8"/>
+      <c r="J162" s="9"/>
+    </row>
+    <row r="166" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D166" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E166" s="19"/>
+      <c r="F166" s="19"/>
+      <c r="G166" s="19"/>
+      <c r="H166" s="19"/>
+      <c r="I166" s="19"/>
+      <c r="J166" s="20"/>
+    </row>
+    <row r="167" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D167" s="5"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
+      <c r="H167" s="2"/>
+      <c r="I167" s="2"/>
+      <c r="J167" s="6"/>
+    </row>
+    <row r="168" spans="4:10" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="D168" s="5"/>
+      <c r="E168" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G168" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H168" s="21"/>
+      <c r="I168" s="21"/>
+      <c r="J168" s="13"/>
+    </row>
+    <row r="169" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D169" s="5"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
+      <c r="H169" s="2"/>
+      <c r="I169" s="2"/>
+      <c r="J169" s="6"/>
+    </row>
+    <row r="170" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D170" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E170" s="23"/>
+      <c r="F170" s="23"/>
+      <c r="G170" s="23"/>
+      <c r="H170" s="23"/>
+      <c r="I170" s="23"/>
+      <c r="J170" s="24"/>
+    </row>
+    <row r="171" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D171" s="5"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
+      <c r="H171" s="2"/>
+      <c r="I171" s="2"/>
+      <c r="J171" s="6"/>
+    </row>
+    <row r="172" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D172" s="5"/>
+      <c r="E172" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F172" s="10">
+        <v>50</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I172" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J172" s="6"/>
+    </row>
+    <row r="173" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D173" s="5"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
+      <c r="H173" s="2"/>
+      <c r="I173" s="2"/>
+      <c r="J173" s="6"/>
+    </row>
+    <row r="174" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D174" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E174" s="23"/>
+      <c r="F174" s="23"/>
+      <c r="G174" s="23"/>
+      <c r="H174" s="23"/>
+      <c r="I174" s="23"/>
+      <c r="J174" s="24"/>
+    </row>
+    <row r="175" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D175" s="5"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="2"/>
+      <c r="H175" s="2"/>
+      <c r="I175" s="2"/>
+      <c r="J175" s="6"/>
+    </row>
+    <row r="176" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D176" s="5"/>
+      <c r="E176" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F176" s="17"/>
+      <c r="G176" s="17"/>
+      <c r="H176" s="17"/>
+      <c r="I176" s="17"/>
+      <c r="J176" s="6"/>
+    </row>
+    <row r="177" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D177" s="5"/>
+      <c r="E177" s="17"/>
+      <c r="F177" s="17"/>
+      <c r="G177" s="17"/>
+      <c r="H177" s="17"/>
+      <c r="I177" s="17"/>
+      <c r="J177" s="6"/>
+    </row>
+    <row r="178" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D178" s="5"/>
+      <c r="E178" s="17"/>
+      <c r="F178" s="17"/>
+      <c r="G178" s="17"/>
+      <c r="H178" s="17"/>
+      <c r="I178" s="17"/>
+      <c r="J178" s="6"/>
+    </row>
+    <row r="179" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D179" s="5"/>
+      <c r="E179" s="17"/>
+      <c r="F179" s="17"/>
+      <c r="G179" s="17"/>
+      <c r="H179" s="17"/>
+      <c r="I179" s="17"/>
+      <c r="J179" s="6"/>
+    </row>
+    <row r="180" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D180" s="5"/>
+      <c r="E180" s="17"/>
+      <c r="F180" s="17"/>
+      <c r="G180" s="17"/>
+      <c r="H180" s="17"/>
+      <c r="I180" s="17"/>
+      <c r="J180" s="6"/>
+    </row>
+    <row r="181" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D181" s="5"/>
+      <c r="E181" s="17"/>
+      <c r="F181" s="17"/>
+      <c r="G181" s="17"/>
+      <c r="H181" s="17"/>
+      <c r="I181" s="17"/>
+      <c r="J181" s="6"/>
+    </row>
+    <row r="182" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D182" s="7"/>
+      <c r="E182" s="8"/>
+      <c r="F182" s="8"/>
+      <c r="G182" s="8"/>
+      <c r="H182" s="8"/>
+      <c r="I182" s="8"/>
+      <c r="J182" s="9"/>
+    </row>
+    <row r="186" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D186" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E186" s="19"/>
+      <c r="F186" s="19"/>
+      <c r="G186" s="19"/>
+      <c r="H186" s="19"/>
+      <c r="I186" s="19"/>
+      <c r="J186" s="20"/>
+    </row>
+    <row r="187" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D187" s="5"/>
+      <c r="E187" s="2"/>
+      <c r="F187" s="2"/>
+      <c r="G187" s="2"/>
+      <c r="H187" s="2"/>
+      <c r="I187" s="2"/>
+      <c r="J187" s="6"/>
+    </row>
+    <row r="188" spans="4:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D188" s="5"/>
+      <c r="E188" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G188" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H188" s="21"/>
+      <c r="I188" s="21"/>
+      <c r="J188" s="13"/>
+    </row>
+    <row r="189" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D189" s="5"/>
+      <c r="E189" s="2"/>
+      <c r="F189" s="2"/>
+      <c r="G189" s="2"/>
+      <c r="H189" s="2"/>
+      <c r="I189" s="2"/>
+      <c r="J189" s="6"/>
+    </row>
+    <row r="190" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D190" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E190" s="23"/>
+      <c r="F190" s="23"/>
+      <c r="G190" s="23"/>
+      <c r="H190" s="23"/>
+      <c r="I190" s="23"/>
+      <c r="J190" s="24"/>
+    </row>
+    <row r="191" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D191" s="5"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
+      <c r="H191" s="2"/>
+      <c r="I191" s="2"/>
+      <c r="J191" s="6"/>
+    </row>
+    <row r="192" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D192" s="5"/>
+      <c r="E192" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F192" s="10">
+        <v>2</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H192" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I192" s="10">
+        <v>0</v>
+      </c>
+      <c r="J192" s="6"/>
+    </row>
+    <row r="193" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D193" s="5"/>
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
+      <c r="G193" s="2"/>
+      <c r="H193" s="2"/>
+      <c r="I193" s="2"/>
+      <c r="J193" s="6"/>
+    </row>
+    <row r="194" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D194" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E194" s="23"/>
+      <c r="F194" s="23"/>
+      <c r="G194" s="23"/>
+      <c r="H194" s="23"/>
+      <c r="I194" s="23"/>
+      <c r="J194" s="24"/>
+    </row>
+    <row r="195" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D195" s="5"/>
+      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
+      <c r="H195" s="2"/>
+      <c r="I195" s="2"/>
+      <c r="J195" s="6"/>
+    </row>
+    <row r="196" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D196" s="5"/>
+      <c r="E196" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F196" s="17"/>
+      <c r="G196" s="17"/>
+      <c r="H196" s="17"/>
+      <c r="I196" s="17"/>
+      <c r="J196" s="6"/>
+    </row>
+    <row r="197" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D197" s="5"/>
+      <c r="E197" s="17"/>
+      <c r="F197" s="17"/>
+      <c r="G197" s="17"/>
+      <c r="H197" s="17"/>
+      <c r="I197" s="17"/>
+      <c r="J197" s="6"/>
+    </row>
+    <row r="198" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D198" s="5"/>
+      <c r="E198" s="17"/>
+      <c r="F198" s="17"/>
+      <c r="G198" s="17"/>
+      <c r="H198" s="17"/>
+      <c r="I198" s="17"/>
+      <c r="J198" s="6"/>
+    </row>
+    <row r="199" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D199" s="5"/>
+      <c r="E199" s="17"/>
+      <c r="F199" s="17"/>
+      <c r="G199" s="17"/>
+      <c r="H199" s="17"/>
+      <c r="I199" s="17"/>
+      <c r="J199" s="6"/>
+    </row>
+    <row r="200" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D200" s="5"/>
+      <c r="E200" s="17"/>
+      <c r="F200" s="17"/>
+      <c r="G200" s="17"/>
+      <c r="H200" s="17"/>
+      <c r="I200" s="17"/>
+      <c r="J200" s="6"/>
+    </row>
+    <row r="201" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D201" s="5"/>
+      <c r="E201" s="17"/>
+      <c r="F201" s="17"/>
+      <c r="G201" s="17"/>
+      <c r="H201" s="17"/>
+      <c r="I201" s="17"/>
+      <c r="J201" s="6"/>
+    </row>
+    <row r="202" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D202" s="7"/>
+      <c r="E202" s="8"/>
+      <c r="F202" s="8"/>
+      <c r="G202" s="8"/>
+      <c r="H202" s="8"/>
+      <c r="I202" s="8"/>
+      <c r="J202" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="53">
+    <mergeCell ref="D54:J54"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="S6:Y6"/>
+    <mergeCell ref="S10:Y10"/>
+    <mergeCell ref="S14:Y14"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="D106:J106"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="D110:J110"/>
+    <mergeCell ref="D114:J114"/>
+    <mergeCell ref="D126:J126"/>
+    <mergeCell ref="E116:I121"/>
+    <mergeCell ref="E136:I141"/>
+    <mergeCell ref="E156:I161"/>
+    <mergeCell ref="E176:I181"/>
+    <mergeCell ref="D166:J166"/>
+    <mergeCell ref="G168:I168"/>
+    <mergeCell ref="D170:J170"/>
+    <mergeCell ref="D174:J174"/>
+    <mergeCell ref="D150:J150"/>
+    <mergeCell ref="D154:J154"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="D130:J130"/>
+    <mergeCell ref="D134:J134"/>
+    <mergeCell ref="D146:J146"/>
+    <mergeCell ref="G148:I148"/>
+    <mergeCell ref="E16:I21"/>
+    <mergeCell ref="E36:I41"/>
+    <mergeCell ref="E56:I61"/>
+    <mergeCell ref="E76:I81"/>
+    <mergeCell ref="E96:I101"/>
+    <mergeCell ref="D86:J86"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="D90:J90"/>
+    <mergeCell ref="D94:J94"/>
+    <mergeCell ref="D66:J66"/>
+    <mergeCell ref="D70:J70"/>
+    <mergeCell ref="D74:J74"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="D46:J46"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="D50:J50"/>
+    <mergeCell ref="E196:I201"/>
+    <mergeCell ref="D186:J186"/>
+    <mergeCell ref="G188:I188"/>
+    <mergeCell ref="D190:J190"/>
+    <mergeCell ref="D194:J194"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2105485-975D-48D0-AC8E-D894C974BEF2}">
+  <dimension ref="B5:J263"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="7" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="2"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="10">
+        <v>7</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+      <c r="C15" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C17" s="4"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C18" s="4"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C19" s="4"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C27" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="20"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C28" s="5"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="2:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="5"/>
+      <c r="D29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="26"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C30" s="5"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C31" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="24"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C32" s="5"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="5"/>
+      <c r="D33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="10">
+        <v>15</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="10">
+        <v>1</v>
+      </c>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C34" s="5"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C35" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="24"/>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C36" s="5"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C37" s="5"/>
+      <c r="D37" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C38" s="5"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C39" s="5"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C40" s="5"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C41" s="5"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C42" s="5"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C43" s="7"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="9"/>
+    </row>
+    <row r="47" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C47" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="20"/>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C48" s="5"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="3:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="5"/>
+      <c r="D49" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="13"/>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C50" s="5"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C51" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="24"/>
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C52" s="5"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="3:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="5"/>
+      <c r="D53" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" s="10">
+        <v>60</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H53" s="10">
+        <v>11</v>
+      </c>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C54" s="5"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C55" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="24"/>
+    </row>
+    <row r="56" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C56" s="5"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C57" s="5"/>
+      <c r="D57" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C58" s="5"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C59" s="5"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C60" s="5"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C61" s="5"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C62" s="5"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C63" s="7"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="9"/>
+    </row>
+    <row r="67" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C67" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="20"/>
+    </row>
+    <row r="68" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C68" s="5"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="6"/>
+    </row>
+    <row r="69" spans="3:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="5"/>
+      <c r="D69" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F69" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="13"/>
+    </row>
+    <row r="70" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C70" s="5"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="6"/>
+    </row>
+    <row r="71" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C71" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="24"/>
+    </row>
+    <row r="72" spans="3:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C72" s="5"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="6"/>
+    </row>
+    <row r="73" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C73" s="5"/>
+      <c r="D73" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E73" s="10">
+        <v>120</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I73" s="6"/>
+    </row>
+    <row r="74" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C74" s="5"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="6"/>
+    </row>
+    <row r="75" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C75" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="24"/>
+    </row>
+    <row r="76" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C76" s="5"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="6"/>
+    </row>
+    <row r="77" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C77" s="5"/>
+      <c r="D77" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="6"/>
+    </row>
+    <row r="78" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C78" s="5"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="6"/>
+    </row>
+    <row r="79" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C79" s="5"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="6"/>
+    </row>
+    <row r="80" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C80" s="5"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="6"/>
+    </row>
+    <row r="81" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C81" s="5"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="6"/>
+    </row>
+    <row r="82" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C82" s="5"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="6"/>
+    </row>
+    <row r="83" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C83" s="7"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="9"/>
+    </row>
+    <row r="84" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+    </row>
+    <row r="85" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C87" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="19"/>
+      <c r="I87" s="20"/>
+    </row>
+    <row r="88" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C88" s="5"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="6"/>
+    </row>
+    <row r="89" spans="3:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C89" s="5"/>
+      <c r="D89" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F89" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="13"/>
+    </row>
+    <row r="90" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C90" s="5"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="6"/>
+    </row>
+    <row r="91" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C91" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="24"/>
+    </row>
+    <row r="92" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C92" s="5"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="6"/>
+    </row>
+    <row r="93" spans="3:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C93" s="5"/>
+      <c r="D93" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E93" s="10">
+        <v>40</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H93" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I93" s="6"/>
+    </row>
+    <row r="94" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C94" s="5"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="6"/>
+    </row>
+    <row r="95" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C95" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" s="23"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="23"/>
+      <c r="I95" s="24"/>
+    </row>
+    <row r="96" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C96" s="5"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="6"/>
+    </row>
+    <row r="97" spans="3:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C97" s="5"/>
+      <c r="D97" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="6"/>
+    </row>
+    <row r="98" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C98" s="5"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="6"/>
+    </row>
+    <row r="99" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C99" s="5"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="6"/>
+    </row>
+    <row r="100" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C100" s="5"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="6"/>
+    </row>
+    <row r="101" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C101" s="5"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="17"/>
+      <c r="I101" s="6"/>
+    </row>
+    <row r="102" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C102" s="5"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17"/>
+      <c r="H102" s="17"/>
+      <c r="I102" s="6"/>
+    </row>
+    <row r="103" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C103" s="7"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="9"/>
+    </row>
+    <row r="107" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C107" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" s="19"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="19"/>
+      <c r="G107" s="19"/>
+      <c r="H107" s="19"/>
+      <c r="I107" s="20"/>
+    </row>
+    <row r="108" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C108" s="5"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="6"/>
+    </row>
+    <row r="109" spans="3:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C109" s="5"/>
+      <c r="D109" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F109" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G109" s="21"/>
+      <c r="H109" s="21"/>
+      <c r="I109" s="13"/>
+    </row>
+    <row r="110" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C110" s="5"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="6"/>
+    </row>
+    <row r="111" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C111" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D111" s="23"/>
+      <c r="E111" s="23"/>
+      <c r="F111" s="23"/>
+      <c r="G111" s="23"/>
+      <c r="H111" s="23"/>
+      <c r="I111" s="24"/>
+    </row>
+    <row r="112" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C112" s="5"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="6"/>
+    </row>
+    <row r="113" spans="3:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C113" s="5"/>
+      <c r="D113" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E113" s="10">
+        <v>60</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H113" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I113" s="6"/>
+    </row>
+    <row r="114" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C114" s="5"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="6"/>
+    </row>
+    <row r="115" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C115" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115" s="23"/>
+      <c r="E115" s="23"/>
+      <c r="F115" s="23"/>
+      <c r="G115" s="23"/>
+      <c r="H115" s="23"/>
+      <c r="I115" s="24"/>
+    </row>
+    <row r="116" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C116" s="5"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="6"/>
+    </row>
+    <row r="117" spans="3:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C117" s="5"/>
+      <c r="D117" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E117" s="17"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="17"/>
+      <c r="H117" s="17"/>
+      <c r="I117" s="6"/>
+    </row>
+    <row r="118" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C118" s="5"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="17"/>
+      <c r="G118" s="17"/>
+      <c r="H118" s="17"/>
+      <c r="I118" s="6"/>
+    </row>
+    <row r="119" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C119" s="5"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="17"/>
+      <c r="H119" s="17"/>
+      <c r="I119" s="6"/>
+    </row>
+    <row r="120" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C120" s="5"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="17"/>
+      <c r="G120" s="17"/>
+      <c r="H120" s="17"/>
+      <c r="I120" s="6"/>
+    </row>
+    <row r="121" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C121" s="5"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="17"/>
+      <c r="G121" s="17"/>
+      <c r="H121" s="17"/>
+      <c r="I121" s="6"/>
+    </row>
+    <row r="122" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C122" s="5"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="16"/>
+      <c r="F122" s="16"/>
+      <c r="G122" s="16"/>
+      <c r="H122" s="16"/>
+      <c r="I122" s="6"/>
+    </row>
+    <row r="123" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C123" s="7"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="9"/>
+    </row>
+    <row r="127" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C127" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D127" s="19"/>
+      <c r="E127" s="19"/>
+      <c r="F127" s="19"/>
+      <c r="G127" s="19"/>
+      <c r="H127" s="19"/>
+      <c r="I127" s="20"/>
+    </row>
+    <row r="128" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C128" s="5"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="6"/>
+    </row>
+    <row r="129" spans="3:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C129" s="5"/>
+      <c r="D129" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F129" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G129" s="21"/>
+      <c r="H129" s="21"/>
+      <c r="I129" s="13"/>
+    </row>
+    <row r="130" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C130" s="5"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="6"/>
+    </row>
+    <row r="131" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C131" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D131" s="23"/>
+      <c r="E131" s="23"/>
+      <c r="F131" s="23"/>
+      <c r="G131" s="23"/>
+      <c r="H131" s="23"/>
+      <c r="I131" s="24"/>
+    </row>
+    <row r="132" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C132" s="5"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="6"/>
+    </row>
+    <row r="133" spans="3:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C133" s="5"/>
+      <c r="D133" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E133" s="10">
+        <v>45</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H133" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I133" s="6"/>
+    </row>
+    <row r="134" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C134" s="5"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="6"/>
+    </row>
+    <row r="135" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C135" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D135" s="23"/>
+      <c r="E135" s="23"/>
+      <c r="F135" s="23"/>
+      <c r="G135" s="23"/>
+      <c r="H135" s="23"/>
+      <c r="I135" s="24"/>
+    </row>
+    <row r="136" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C136" s="5"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="6"/>
+    </row>
+    <row r="137" spans="3:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C137" s="5"/>
+      <c r="D137" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E137" s="17"/>
+      <c r="F137" s="17"/>
+      <c r="G137" s="17"/>
+      <c r="H137" s="17"/>
+      <c r="I137" s="6"/>
+    </row>
+    <row r="138" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C138" s="5"/>
+      <c r="D138" s="17"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="17"/>
+      <c r="G138" s="17"/>
+      <c r="H138" s="17"/>
+      <c r="I138" s="6"/>
+    </row>
+    <row r="139" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C139" s="5"/>
+      <c r="D139" s="17"/>
+      <c r="E139" s="17"/>
+      <c r="F139" s="17"/>
+      <c r="G139" s="17"/>
+      <c r="H139" s="17"/>
+      <c r="I139" s="6"/>
+    </row>
+    <row r="140" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C140" s="5"/>
+      <c r="D140" s="17"/>
+      <c r="E140" s="17"/>
+      <c r="F140" s="17"/>
+      <c r="G140" s="17"/>
+      <c r="H140" s="17"/>
+      <c r="I140" s="6"/>
+    </row>
+    <row r="141" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C141" s="5"/>
+      <c r="D141" s="17"/>
+      <c r="E141" s="17"/>
+      <c r="F141" s="17"/>
+      <c r="G141" s="17"/>
+      <c r="H141" s="17"/>
+      <c r="I141" s="6"/>
+    </row>
+    <row r="142" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C142" s="5"/>
+      <c r="D142" s="17"/>
+      <c r="E142" s="17"/>
+      <c r="F142" s="17"/>
+      <c r="G142" s="17"/>
+      <c r="H142" s="17"/>
+      <c r="I142" s="6"/>
+    </row>
+    <row r="143" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C143" s="7"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="9"/>
+    </row>
+    <row r="147" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C147" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D147" s="19"/>
+      <c r="E147" s="19"/>
+      <c r="F147" s="19"/>
+      <c r="G147" s="19"/>
+      <c r="H147" s="19"/>
+      <c r="I147" s="20"/>
+    </row>
+    <row r="148" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C148" s="5"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="6"/>
+    </row>
+    <row r="149" spans="3:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C149" s="5"/>
+      <c r="D149" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F149" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G149" s="21"/>
+      <c r="H149" s="21"/>
+      <c r="I149" s="13"/>
+    </row>
+    <row r="150" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C150" s="5"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="6"/>
+    </row>
+    <row r="151" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C151" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D151" s="23"/>
+      <c r="E151" s="23"/>
+      <c r="F151" s="23"/>
+      <c r="G151" s="23"/>
+      <c r="H151" s="23"/>
+      <c r="I151" s="24"/>
+    </row>
+    <row r="152" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C152" s="5"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
+      <c r="I152" s="6"/>
+    </row>
+    <row r="153" spans="3:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C153" s="5"/>
+      <c r="D153" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E153" s="10">
+        <v>60</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H153" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I153" s="6"/>
+    </row>
+    <row r="154" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C154" s="5"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="6"/>
+    </row>
+    <row r="155" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C155" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D155" s="23"/>
+      <c r="E155" s="23"/>
+      <c r="F155" s="23"/>
+      <c r="G155" s="23"/>
+      <c r="H155" s="23"/>
+      <c r="I155" s="24"/>
+    </row>
+    <row r="156" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C156" s="5"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="6"/>
+    </row>
+    <row r="157" spans="3:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C157" s="5"/>
+      <c r="D157" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E157" s="17"/>
+      <c r="F157" s="17"/>
+      <c r="G157" s="17"/>
+      <c r="H157" s="17"/>
+      <c r="I157" s="6"/>
+    </row>
+    <row r="158" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C158" s="5"/>
+      <c r="D158" s="17"/>
+      <c r="E158" s="17"/>
+      <c r="F158" s="17"/>
+      <c r="G158" s="17"/>
+      <c r="H158" s="17"/>
+      <c r="I158" s="6"/>
+    </row>
+    <row r="159" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C159" s="5"/>
+      <c r="D159" s="17"/>
+      <c r="E159" s="17"/>
+      <c r="F159" s="17"/>
+      <c r="G159" s="17"/>
+      <c r="H159" s="17"/>
+      <c r="I159" s="6"/>
+    </row>
+    <row r="160" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C160" s="5"/>
+      <c r="D160" s="17"/>
+      <c r="E160" s="17"/>
+      <c r="F160" s="17"/>
+      <c r="G160" s="17"/>
+      <c r="H160" s="17"/>
+      <c r="I160" s="6"/>
+    </row>
+    <row r="161" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C161" s="5"/>
+      <c r="D161" s="17"/>
+      <c r="E161" s="17"/>
+      <c r="F161" s="17"/>
+      <c r="G161" s="17"/>
+      <c r="H161" s="17"/>
+      <c r="I161" s="6"/>
+    </row>
+    <row r="162" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C162" s="5"/>
+      <c r="D162" s="17"/>
+      <c r="E162" s="17"/>
+      <c r="F162" s="17"/>
+      <c r="G162" s="17"/>
+      <c r="H162" s="17"/>
+      <c r="I162" s="6"/>
+    </row>
+    <row r="163" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C163" s="7"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="8"/>
+      <c r="F163" s="8"/>
+      <c r="G163" s="8"/>
+      <c r="H163" s="8"/>
+      <c r="I163" s="9"/>
+    </row>
+    <row r="167" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C167" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D167" s="19"/>
+      <c r="E167" s="19"/>
+      <c r="F167" s="19"/>
+      <c r="G167" s="19"/>
+      <c r="H167" s="19"/>
+      <c r="I167" s="20"/>
+    </row>
+    <row r="168" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C168" s="5"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
+      <c r="H168" s="2"/>
+      <c r="I168" s="6"/>
+    </row>
+    <row r="169" spans="3:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C169" s="5"/>
+      <c r="D169" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F169" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G169" s="21"/>
+      <c r="H169" s="21"/>
+      <c r="I169" s="13"/>
+    </row>
+    <row r="170" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C170" s="5"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
+      <c r="I170" s="6"/>
+    </row>
+    <row r="171" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C171" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D171" s="23"/>
+      <c r="E171" s="23"/>
+      <c r="F171" s="23"/>
+      <c r="G171" s="23"/>
+      <c r="H171" s="23"/>
+      <c r="I171" s="24"/>
+    </row>
+    <row r="172" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C172" s="5"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2"/>
+      <c r="H172" s="2"/>
+      <c r="I172" s="6"/>
+    </row>
+    <row r="173" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C173" s="5"/>
+      <c r="D173" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E173" s="10">
+        <v>50</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H173" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I173" s="6"/>
+    </row>
+    <row r="174" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C174" s="5"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
+      <c r="G174" s="2"/>
+      <c r="H174" s="2"/>
+      <c r="I174" s="6"/>
+    </row>
+    <row r="175" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C175" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D175" s="23"/>
+      <c r="E175" s="23"/>
+      <c r="F175" s="23"/>
+      <c r="G175" s="23"/>
+      <c r="H175" s="23"/>
+      <c r="I175" s="24"/>
+    </row>
+    <row r="176" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C176" s="5"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+      <c r="G176" s="2"/>
+      <c r="H176" s="2"/>
+      <c r="I176" s="6"/>
+    </row>
+    <row r="177" spans="3:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C177" s="5"/>
+      <c r="D177" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E177" s="17"/>
+      <c r="F177" s="17"/>
+      <c r="G177" s="17"/>
+      <c r="H177" s="17"/>
+      <c r="I177" s="6"/>
+    </row>
+    <row r="178" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C178" s="5"/>
+      <c r="D178" s="17"/>
+      <c r="E178" s="17"/>
+      <c r="F178" s="17"/>
+      <c r="G178" s="17"/>
+      <c r="H178" s="17"/>
+      <c r="I178" s="6"/>
+    </row>
+    <row r="179" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C179" s="5"/>
+      <c r="D179" s="17"/>
+      <c r="E179" s="17"/>
+      <c r="F179" s="17"/>
+      <c r="G179" s="17"/>
+      <c r="H179" s="17"/>
+      <c r="I179" s="6"/>
+    </row>
+    <row r="180" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C180" s="5"/>
+      <c r="D180" s="17"/>
+      <c r="E180" s="17"/>
+      <c r="F180" s="17"/>
+      <c r="G180" s="17"/>
+      <c r="H180" s="17"/>
+      <c r="I180" s="6"/>
+    </row>
+    <row r="181" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C181" s="5"/>
+      <c r="D181" s="17"/>
+      <c r="E181" s="17"/>
+      <c r="F181" s="17"/>
+      <c r="G181" s="17"/>
+      <c r="H181" s="17"/>
+      <c r="I181" s="6"/>
+    </row>
+    <row r="182" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C182" s="5"/>
+      <c r="D182" s="17"/>
+      <c r="E182" s="17"/>
+      <c r="F182" s="17"/>
+      <c r="G182" s="17"/>
+      <c r="H182" s="17"/>
+      <c r="I182" s="6"/>
+    </row>
+    <row r="183" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C183" s="7"/>
+      <c r="D183" s="8"/>
+      <c r="E183" s="8"/>
+      <c r="F183" s="8"/>
+      <c r="G183" s="8"/>
+      <c r="H183" s="8"/>
+      <c r="I183" s="9"/>
+    </row>
+    <row r="187" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C187" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D187" s="19"/>
+      <c r="E187" s="19"/>
+      <c r="F187" s="19"/>
+      <c r="G187" s="19"/>
+      <c r="H187" s="19"/>
+      <c r="I187" s="20"/>
+    </row>
+    <row r="188" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C188" s="5"/>
+      <c r="D188" s="2"/>
+      <c r="E188" s="2"/>
+      <c r="F188" s="2"/>
+      <c r="G188" s="2"/>
+      <c r="H188" s="2"/>
+      <c r="I188" s="6"/>
+    </row>
+    <row r="189" spans="3:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C189" s="5"/>
+      <c r="D189" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F189" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G189" s="28"/>
+      <c r="H189" s="28"/>
+      <c r="I189" s="13"/>
+    </row>
+    <row r="190" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C190" s="5"/>
+      <c r="D190" s="2"/>
+      <c r="E190" s="2"/>
+      <c r="F190" s="2"/>
+      <c r="G190" s="2"/>
+      <c r="H190" s="2"/>
+      <c r="I190" s="6"/>
+    </row>
+    <row r="191" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C191" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D191" s="23"/>
+      <c r="E191" s="23"/>
+      <c r="F191" s="23"/>
+      <c r="G191" s="23"/>
+      <c r="H191" s="23"/>
+      <c r="I191" s="24"/>
+    </row>
+    <row r="192" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C192" s="5"/>
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
+      <c r="G192" s="2"/>
+      <c r="H192" s="2"/>
+      <c r="I192" s="6"/>
+    </row>
+    <row r="193" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C193" s="5"/>
+      <c r="D193" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E193" s="10">
+        <v>10</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G193" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H193" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I193" s="6"/>
+    </row>
+    <row r="194" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C194" s="5"/>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2"/>
+      <c r="F194" s="2"/>
+      <c r="G194" s="2"/>
+      <c r="H194" s="2"/>
+      <c r="I194" s="6"/>
+    </row>
+    <row r="195" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C195" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D195" s="23"/>
+      <c r="E195" s="23"/>
+      <c r="F195" s="23"/>
+      <c r="G195" s="23"/>
+      <c r="H195" s="23"/>
+      <c r="I195" s="24"/>
+    </row>
+    <row r="196" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C196" s="5"/>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
+      <c r="G196" s="2"/>
+      <c r="H196" s="2"/>
+      <c r="I196" s="6"/>
+    </row>
+    <row r="197" spans="3:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C197" s="5"/>
+      <c r="D197" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E197" s="17"/>
+      <c r="F197" s="17"/>
+      <c r="G197" s="17"/>
+      <c r="H197" s="17"/>
+      <c r="I197" s="6"/>
+    </row>
+    <row r="198" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C198" s="5"/>
+      <c r="D198" s="17"/>
+      <c r="E198" s="17"/>
+      <c r="F198" s="17"/>
+      <c r="G198" s="17"/>
+      <c r="H198" s="17"/>
+      <c r="I198" s="6"/>
+    </row>
+    <row r="199" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C199" s="5"/>
+      <c r="D199" s="17"/>
+      <c r="E199" s="17"/>
+      <c r="F199" s="17"/>
+      <c r="G199" s="17"/>
+      <c r="H199" s="17"/>
+      <c r="I199" s="6"/>
+    </row>
+    <row r="200" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C200" s="5"/>
+      <c r="D200" s="17"/>
+      <c r="E200" s="17"/>
+      <c r="F200" s="17"/>
+      <c r="G200" s="17"/>
+      <c r="H200" s="17"/>
+      <c r="I200" s="6"/>
+    </row>
+    <row r="201" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C201" s="5"/>
+      <c r="D201" s="17"/>
+      <c r="E201" s="17"/>
+      <c r="F201" s="17"/>
+      <c r="G201" s="17"/>
+      <c r="H201" s="17"/>
+      <c r="I201" s="6"/>
+    </row>
+    <row r="202" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C202" s="5"/>
+      <c r="D202" s="17"/>
+      <c r="E202" s="17"/>
+      <c r="F202" s="17"/>
+      <c r="G202" s="17"/>
+      <c r="H202" s="17"/>
+      <c r="I202" s="6"/>
+    </row>
+    <row r="203" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C203" s="7"/>
+      <c r="D203" s="8"/>
+      <c r="E203" s="8"/>
+      <c r="F203" s="8"/>
+      <c r="G203" s="8"/>
+      <c r="H203" s="8"/>
+      <c r="I203" s="9"/>
+    </row>
+    <row r="207" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C207" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D207" s="19"/>
+      <c r="E207" s="19"/>
+      <c r="F207" s="19"/>
+      <c r="G207" s="19"/>
+      <c r="H207" s="19"/>
+      <c r="I207" s="20"/>
+    </row>
+    <row r="208" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C208" s="5"/>
+      <c r="D208" s="2"/>
+      <c r="E208" s="2"/>
+      <c r="F208" s="2"/>
+      <c r="G208" s="2"/>
+      <c r="H208" s="2"/>
+      <c r="I208" s="6"/>
+    </row>
+    <row r="209" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C209" s="5"/>
+      <c r="D209" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F209" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G209" s="21"/>
+      <c r="H209" s="21"/>
+      <c r="I209" s="13"/>
+    </row>
+    <row r="210" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C210" s="5"/>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
+      <c r="F210" s="2"/>
+      <c r="G210" s="2"/>
+      <c r="H210" s="2"/>
+      <c r="I210" s="6"/>
+    </row>
+    <row r="211" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C211" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D211" s="23"/>
+      <c r="E211" s="23"/>
+      <c r="F211" s="23"/>
+      <c r="G211" s="23"/>
+      <c r="H211" s="23"/>
+      <c r="I211" s="24"/>
+    </row>
+    <row r="212" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C212" s="5"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
+      <c r="F212" s="2"/>
+      <c r="G212" s="2"/>
+      <c r="H212" s="2"/>
+      <c r="I212" s="6"/>
+    </row>
+    <row r="213" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C213" s="5"/>
+      <c r="D213" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E213" s="10">
+        <v>40</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G213" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H213" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I213" s="6"/>
+    </row>
+    <row r="214" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C214" s="5"/>
+      <c r="D214" s="2"/>
+      <c r="E214" s="2"/>
+      <c r="F214" s="2"/>
+      <c r="G214" s="2"/>
+      <c r="H214" s="2"/>
+      <c r="I214" s="6"/>
+    </row>
+    <row r="215" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C215" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D215" s="23"/>
+      <c r="E215" s="23"/>
+      <c r="F215" s="23"/>
+      <c r="G215" s="23"/>
+      <c r="H215" s="23"/>
+      <c r="I215" s="24"/>
+    </row>
+    <row r="216" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C216" s="5"/>
+      <c r="D216" s="2"/>
+      <c r="E216" s="2"/>
+      <c r="F216" s="2"/>
+      <c r="G216" s="2"/>
+      <c r="H216" s="2"/>
+      <c r="I216" s="6"/>
+    </row>
+    <row r="217" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C217" s="5"/>
+      <c r="D217" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E217" s="17"/>
+      <c r="F217" s="17"/>
+      <c r="G217" s="17"/>
+      <c r="H217" s="17"/>
+      <c r="I217" s="6"/>
+    </row>
+    <row r="218" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C218" s="5"/>
+      <c r="D218" s="17"/>
+      <c r="E218" s="17"/>
+      <c r="F218" s="17"/>
+      <c r="G218" s="17"/>
+      <c r="H218" s="17"/>
+      <c r="I218" s="6"/>
+    </row>
+    <row r="219" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C219" s="5"/>
+      <c r="D219" s="17"/>
+      <c r="E219" s="17"/>
+      <c r="F219" s="17"/>
+      <c r="G219" s="17"/>
+      <c r="H219" s="17"/>
+      <c r="I219" s="6"/>
+    </row>
+    <row r="220" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C220" s="5"/>
+      <c r="D220" s="17"/>
+      <c r="E220" s="17"/>
+      <c r="F220" s="17"/>
+      <c r="G220" s="17"/>
+      <c r="H220" s="17"/>
+      <c r="I220" s="6"/>
+    </row>
+    <row r="221" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C221" s="5"/>
+      <c r="D221" s="17"/>
+      <c r="E221" s="17"/>
+      <c r="F221" s="17"/>
+      <c r="G221" s="17"/>
+      <c r="H221" s="17"/>
+      <c r="I221" s="6"/>
+    </row>
+    <row r="222" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C222" s="5"/>
+      <c r="D222" s="17"/>
+      <c r="E222" s="17"/>
+      <c r="F222" s="17"/>
+      <c r="G222" s="17"/>
+      <c r="H222" s="17"/>
+      <c r="I222" s="6"/>
+    </row>
+    <row r="223" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C223" s="7"/>
+      <c r="D223" s="8"/>
+      <c r="E223" s="8"/>
+      <c r="F223" s="8"/>
+      <c r="G223" s="8"/>
+      <c r="H223" s="8"/>
+      <c r="I223" s="9"/>
+    </row>
+    <row r="227" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C227" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D227" s="19"/>
+      <c r="E227" s="19"/>
+      <c r="F227" s="19"/>
+      <c r="G227" s="19"/>
+      <c r="H227" s="19"/>
+      <c r="I227" s="20"/>
+    </row>
+    <row r="228" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C228" s="5"/>
+      <c r="D228" s="2"/>
+      <c r="E228" s="2"/>
+      <c r="F228" s="2"/>
+      <c r="G228" s="2"/>
+      <c r="H228" s="2"/>
+      <c r="I228" s="6"/>
+    </row>
+    <row r="229" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C229" s="5"/>
+      <c r="D229" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F229" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G229" s="21"/>
+      <c r="H229" s="21"/>
+      <c r="I229" s="13"/>
+    </row>
+    <row r="230" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C230" s="5"/>
+      <c r="D230" s="2"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="2"/>
+      <c r="G230" s="2"/>
+      <c r="H230" s="2"/>
+      <c r="I230" s="6"/>
+    </row>
+    <row r="231" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C231" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D231" s="23"/>
+      <c r="E231" s="23"/>
+      <c r="F231" s="23"/>
+      <c r="G231" s="23"/>
+      <c r="H231" s="23"/>
+      <c r="I231" s="24"/>
+    </row>
+    <row r="232" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C232" s="5"/>
+      <c r="D232" s="2"/>
+      <c r="E232" s="2"/>
+      <c r="F232" s="2"/>
+      <c r="G232" s="2"/>
+      <c r="H232" s="2"/>
+      <c r="I232" s="6"/>
+    </row>
+    <row r="233" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C233" s="5"/>
+      <c r="D233" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E233" s="10">
+        <v>15</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G233" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H233" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I233" s="6"/>
+    </row>
+    <row r="234" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C234" s="5"/>
+      <c r="D234" s="2"/>
+      <c r="E234" s="2"/>
+      <c r="F234" s="2"/>
+      <c r="G234" s="2"/>
+      <c r="H234" s="2"/>
+      <c r="I234" s="6"/>
+    </row>
+    <row r="235" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C235" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D235" s="23"/>
+      <c r="E235" s="23"/>
+      <c r="F235" s="23"/>
+      <c r="G235" s="23"/>
+      <c r="H235" s="23"/>
+      <c r="I235" s="24"/>
+    </row>
+    <row r="236" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C236" s="5"/>
+      <c r="D236" s="2"/>
+      <c r="E236" s="2"/>
+      <c r="F236" s="2"/>
+      <c r="G236" s="2"/>
+      <c r="H236" s="2"/>
+      <c r="I236" s="6"/>
+    </row>
+    <row r="237" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C237" s="5"/>
+      <c r="D237" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E237" s="17"/>
+      <c r="F237" s="17"/>
+      <c r="G237" s="17"/>
+      <c r="H237" s="17"/>
+      <c r="I237" s="6"/>
+    </row>
+    <row r="238" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C238" s="5"/>
+      <c r="D238" s="17"/>
+      <c r="E238" s="17"/>
+      <c r="F238" s="17"/>
+      <c r="G238" s="17"/>
+      <c r="H238" s="17"/>
+      <c r="I238" s="6"/>
+    </row>
+    <row r="239" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C239" s="5"/>
+      <c r="D239" s="17"/>
+      <c r="E239" s="17"/>
+      <c r="F239" s="17"/>
+      <c r="G239" s="17"/>
+      <c r="H239" s="17"/>
+      <c r="I239" s="6"/>
+    </row>
+    <row r="240" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C240" s="5"/>
+      <c r="D240" s="17"/>
+      <c r="E240" s="17"/>
+      <c r="F240" s="17"/>
+      <c r="G240" s="17"/>
+      <c r="H240" s="17"/>
+      <c r="I240" s="6"/>
+    </row>
+    <row r="241" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C241" s="5"/>
+      <c r="D241" s="17"/>
+      <c r="E241" s="17"/>
+      <c r="F241" s="17"/>
+      <c r="G241" s="17"/>
+      <c r="H241" s="17"/>
+      <c r="I241" s="6"/>
+    </row>
+    <row r="242" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C242" s="5"/>
+      <c r="D242" s="17"/>
+      <c r="E242" s="17"/>
+      <c r="F242" s="17"/>
+      <c r="G242" s="17"/>
+      <c r="H242" s="17"/>
+      <c r="I242" s="6"/>
+    </row>
+    <row r="243" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C243" s="7"/>
+      <c r="D243" s="8"/>
+      <c r="E243" s="8"/>
+      <c r="F243" s="8"/>
+      <c r="G243" s="8"/>
+      <c r="H243" s="8"/>
+      <c r="I243" s="9"/>
+    </row>
+    <row r="247" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C247" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D247" s="19"/>
+      <c r="E247" s="19"/>
+      <c r="F247" s="19"/>
+      <c r="G247" s="19"/>
+      <c r="H247" s="19"/>
+      <c r="I247" s="20"/>
+    </row>
+    <row r="248" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C248" s="5"/>
+      <c r="D248" s="2"/>
+      <c r="E248" s="2"/>
+      <c r="F248" s="2"/>
+      <c r="G248" s="2"/>
+      <c r="H248" s="2"/>
+      <c r="I248" s="6"/>
+    </row>
+    <row r="249" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C249" s="5"/>
+      <c r="D249" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F249" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G249" s="21"/>
+      <c r="H249" s="21"/>
+      <c r="I249" s="13"/>
+    </row>
+    <row r="250" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C250" s="5"/>
+      <c r="D250" s="2"/>
+      <c r="E250" s="2"/>
+      <c r="F250" s="2"/>
+      <c r="G250" s="2"/>
+      <c r="H250" s="2"/>
+      <c r="I250" s="6"/>
+    </row>
+    <row r="251" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C251" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D251" s="23"/>
+      <c r="E251" s="23"/>
+      <c r="F251" s="23"/>
+      <c r="G251" s="23"/>
+      <c r="H251" s="23"/>
+      <c r="I251" s="24"/>
+    </row>
+    <row r="252" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C252" s="5"/>
+      <c r="D252" s="2"/>
+      <c r="E252" s="2"/>
+      <c r="F252" s="2"/>
+      <c r="G252" s="2"/>
+      <c r="H252" s="2"/>
+      <c r="I252" s="6"/>
+    </row>
+    <row r="253" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C253" s="5"/>
+      <c r="D253" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E253" s="10">
+        <v>30</v>
+      </c>
+      <c r="F253" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G253" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H253" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I253" s="6"/>
+    </row>
+    <row r="254" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C254" s="5"/>
+      <c r="D254" s="2"/>
+      <c r="E254" s="2"/>
+      <c r="F254" s="2"/>
+      <c r="G254" s="2"/>
+      <c r="H254" s="2"/>
+      <c r="I254" s="6"/>
+    </row>
+    <row r="255" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C255" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D255" s="23"/>
+      <c r="E255" s="23"/>
+      <c r="F255" s="23"/>
+      <c r="G255" s="23"/>
+      <c r="H255" s="23"/>
+      <c r="I255" s="24"/>
+    </row>
+    <row r="256" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C256" s="5"/>
+      <c r="D256" s="2"/>
+      <c r="E256" s="2"/>
+      <c r="F256" s="2"/>
+      <c r="G256" s="2"/>
+      <c r="H256" s="2"/>
+      <c r="I256" s="6"/>
+    </row>
+    <row r="257" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C257" s="5"/>
+      <c r="D257" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E257" s="17"/>
+      <c r="F257" s="17"/>
+      <c r="G257" s="17"/>
+      <c r="H257" s="17"/>
+      <c r="I257" s="6"/>
+    </row>
+    <row r="258" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C258" s="5"/>
+      <c r="D258" s="17"/>
+      <c r="E258" s="17"/>
+      <c r="F258" s="17"/>
+      <c r="G258" s="17"/>
+      <c r="H258" s="17"/>
+      <c r="I258" s="6"/>
+    </row>
+    <row r="259" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C259" s="5"/>
+      <c r="D259" s="17"/>
+      <c r="E259" s="17"/>
+      <c r="F259" s="17"/>
+      <c r="G259" s="17"/>
+      <c r="H259" s="17"/>
+      <c r="I259" s="6"/>
+    </row>
+    <row r="260" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C260" s="5"/>
+      <c r="D260" s="17"/>
+      <c r="E260" s="17"/>
+      <c r="F260" s="17"/>
+      <c r="G260" s="17"/>
+      <c r="H260" s="17"/>
+      <c r="I260" s="6"/>
+    </row>
+    <row r="261" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C261" s="5"/>
+      <c r="D261" s="17"/>
+      <c r="E261" s="17"/>
+      <c r="F261" s="17"/>
+      <c r="G261" s="17"/>
+      <c r="H261" s="17"/>
+      <c r="I261" s="6"/>
+    </row>
+    <row r="262" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C262" s="5"/>
+      <c r="D262" s="17"/>
+      <c r="E262" s="17"/>
+      <c r="F262" s="17"/>
+      <c r="G262" s="17"/>
+      <c r="H262" s="17"/>
+      <c r="I262" s="6"/>
+    </row>
+    <row r="263" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C263" s="7"/>
+      <c r="D263" s="8"/>
+      <c r="E263" s="8"/>
+      <c r="F263" s="8"/>
+      <c r="G263" s="8"/>
+      <c r="H263" s="8"/>
+      <c r="I263" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D3:J3"/>
+  <mergeCells count="65">
+    <mergeCell ref="C51:I51"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="D17:H22"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="C35:I35"/>
+    <mergeCell ref="D37:H42"/>
+    <mergeCell ref="C47:I47"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="D97:H102"/>
+    <mergeCell ref="C55:I55"/>
+    <mergeCell ref="D57:H62"/>
+    <mergeCell ref="C87:I87"/>
+    <mergeCell ref="F89:H89"/>
+    <mergeCell ref="C91:I91"/>
+    <mergeCell ref="C95:I95"/>
+    <mergeCell ref="C135:I135"/>
+    <mergeCell ref="D137:H142"/>
+    <mergeCell ref="C147:I147"/>
+    <mergeCell ref="F149:H149"/>
+    <mergeCell ref="C107:I107"/>
+    <mergeCell ref="F109:H109"/>
+    <mergeCell ref="C111:I111"/>
+    <mergeCell ref="C115:I115"/>
+    <mergeCell ref="C127:I127"/>
+    <mergeCell ref="C175:I175"/>
+    <mergeCell ref="D177:H182"/>
+    <mergeCell ref="C67:I67"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="C71:I71"/>
+    <mergeCell ref="C75:I75"/>
+    <mergeCell ref="D77:H82"/>
+    <mergeCell ref="D117:H121"/>
+    <mergeCell ref="C151:I151"/>
+    <mergeCell ref="C155:I155"/>
+    <mergeCell ref="D157:H162"/>
+    <mergeCell ref="C167:I167"/>
+    <mergeCell ref="F169:H169"/>
+    <mergeCell ref="C171:I171"/>
+    <mergeCell ref="F129:H129"/>
+    <mergeCell ref="C131:I131"/>
+    <mergeCell ref="C227:I227"/>
+    <mergeCell ref="C187:I187"/>
+    <mergeCell ref="F189:H189"/>
+    <mergeCell ref="C191:I191"/>
+    <mergeCell ref="C195:I195"/>
+    <mergeCell ref="D197:H202"/>
+    <mergeCell ref="C207:I207"/>
+    <mergeCell ref="F209:H209"/>
+    <mergeCell ref="C211:I211"/>
+    <mergeCell ref="C215:I215"/>
+    <mergeCell ref="D217:H222"/>
+    <mergeCell ref="C251:I251"/>
+    <mergeCell ref="C255:I255"/>
+    <mergeCell ref="D257:H262"/>
+    <mergeCell ref="F229:H229"/>
+    <mergeCell ref="C231:I231"/>
+    <mergeCell ref="C235:I235"/>
+    <mergeCell ref="D237:H242"/>
+    <mergeCell ref="C247:I247"/>
+    <mergeCell ref="F249:H249"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>